--- a/output_1_jobs.xlsx
+++ b/output_1_jobs.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,222 +423,134 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.8609029411764706</v>
+        <v>0.441161369047619</v>
       </c>
       <c r="B1" t="n">
-        <v>1.468713731073741</v>
+        <v>0.6423397023809524</v>
       </c>
       <c r="C1" t="n">
-        <v>2.124846366596367</v>
+        <v>0.6896852813852813</v>
       </c>
       <c r="D1" t="n">
-        <v>3.185773397089582</v>
+        <v>5.671904647297715</v>
       </c>
       <c r="E1" t="n">
-        <v>2.051982021116936</v>
+        <v>3.011832882751035</v>
       </c>
       <c r="F1" t="n">
-        <v>2.355662331086957</v>
+        <v>3.510978267566299</v>
       </c>
       <c r="G1" t="n">
-        <v>1.650496731730988</v>
+        <v>2.154164503968254</v>
       </c>
       <c r="H1" t="n">
-        <v>0.8609029411764706</v>
+        <v>0.8514333333333333</v>
       </c>
       <c r="I1" t="n">
-        <v>1.468713731073741</v>
+        <v>1.052611666666667</v>
       </c>
       <c r="J1" t="n">
-        <v>3.437728937728938</v>
+        <v>1.45</v>
       </c>
       <c r="K1" t="n">
-        <v>4.048582995951417</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="L1" t="n">
-        <v>4.016064257028113</v>
+        <v>6.993006993006993</v>
       </c>
       <c r="M1" t="n">
-        <v>4.032258064516129</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="N1" t="n">
-        <v>2.913852641609128</v>
+        <v>3.988886984126984</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.8541399999999999</v>
+        <v>0.4800488904761904</v>
       </c>
       <c r="B2" t="n">
-        <v>1.497896395664591</v>
+        <v>0.6802339357142858</v>
       </c>
       <c r="C2" t="n">
-        <v>2.30589072423882</v>
+        <v>0.698071369047619</v>
       </c>
       <c r="D2" t="n">
-        <v>3.14165218270131</v>
+        <v>5.832950868325977</v>
       </c>
       <c r="E2" t="n">
-        <v>1.941821364426035</v>
+        <v>2.74900724284627</v>
       </c>
       <c r="F2" t="n">
-        <v>2.22692954314345</v>
+        <v>3.395122168136697</v>
       </c>
       <c r="G2" t="n">
-        <v>1.499772107182327</v>
+        <v>1.832932305555555</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8541399999999999</v>
+        <v>0.8919342857142857</v>
       </c>
       <c r="I2" t="n">
-        <v>1.497896395664591</v>
+        <v>1.1295</v>
       </c>
       <c r="J2" t="n">
-        <v>3.483340102228888</v>
+        <v>1.23</v>
       </c>
       <c r="K2" t="n">
-        <v>4.016064257028113</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="L2" t="n">
-        <v>4.016064257028113</v>
+        <v>6.993006993006993</v>
       </c>
       <c r="M2" t="n">
-        <v>4.032258064516129</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="N2" t="n">
-        <v>2.830359444910505</v>
+        <v>3.806859603174604</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.8575571428571428</v>
+        <v>0.4259075119047619</v>
       </c>
       <c r="B3" t="n">
-        <v>1.436867971429107</v>
+        <v>0.6021020357142857</v>
       </c>
       <c r="C3" t="n">
-        <v>1.942685237919974</v>
+        <v>0.7088338690476192</v>
       </c>
       <c r="D3" t="n">
-        <v>2.92694612933546</v>
+        <v>6.037494930492006</v>
       </c>
       <c r="E3" t="n">
-        <v>1.913933035449584</v>
+        <v>2.960085726336644</v>
       </c>
       <c r="F3" t="n">
-        <v>2.128173057024177</v>
+        <v>3.437402394312128</v>
       </c>
       <c r="G3" t="n">
-        <v>1.449504931125937</v>
+        <v>1.925632308730157</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8575571428571428</v>
+        <v>0.8258826190476189</v>
       </c>
       <c r="I3" t="n">
-        <v>1.436867971429107</v>
+        <v>1.002077142857143</v>
       </c>
       <c r="J3" t="n">
-        <v>3.418261561676085</v>
+        <v>1.23</v>
       </c>
       <c r="K3" t="n">
-        <v>4.016064257028113</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="L3" t="n">
-        <v>4.016064257028113</v>
+        <v>6.993006993006993</v>
       </c>
       <c r="M3" t="n">
-        <v>4.032258064516129</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="N3" t="n">
-        <v>2.927852006653071</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0.79216</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1.438785866815765</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.840982510251081</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.235829951529579</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2.201702563742139</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.692746788092379</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.717829289111238</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.79216</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.438785866815765</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.054627050727051</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.032258064516129</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4.016064257028113</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4.048582995951417</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3.351320743824657</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0.8749521739130435</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1.804127202013598</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2.399726544857594</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.241136389353893</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2.777028455080738</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3.153084400533085</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2.014071965225544</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.8749521739130435</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.804127202013598</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.061132715749518</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.032258064516129</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4.016064257028113</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4.048582995951417</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.920569243096195</v>
+        <v>3.671755158730155</v>
       </c>
     </row>
   </sheetData>

--- a/output_1_jobs.xlsx
+++ b/output_1_jobs.xlsx
@@ -1,34 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonproject\ICC_new\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F753A1A-E7BA-4758-83C9-BF94F71E3AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +58,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,152 +360,150 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>0.441161369047619</v>
-      </c>
-      <c r="B1" t="n">
-        <v>0.6423397023809524</v>
-      </c>
-      <c r="C1" t="n">
-        <v>0.6896852813852813</v>
-      </c>
-      <c r="D1" t="n">
-        <v>5.671904647297715</v>
-      </c>
-      <c r="E1" t="n">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>0.44116136904761899</v>
+      </c>
+      <c r="B1">
+        <v>0.64233970238095239</v>
+      </c>
+      <c r="C1">
+        <v>0.68968528138528129</v>
+      </c>
+      <c r="D1">
+        <v>5.6719046472977146</v>
+      </c>
+      <c r="E1">
         <v>3.011832882751035</v>
       </c>
-      <c r="F1" t="n">
+      <c r="F1">
         <v>3.510978267566299</v>
       </c>
-      <c r="G1" t="n">
+      <c r="G1">
         <v>2.154164503968254</v>
       </c>
-      <c r="H1" t="n">
-        <v>0.8514333333333333</v>
-      </c>
-      <c r="I1" t="n">
-        <v>1.052611666666667</v>
-      </c>
-      <c r="J1" t="n">
+      <c r="H1">
+        <v>0.85143333333333326</v>
+      </c>
+      <c r="I1">
+        <v>1.0526116666666669</v>
+      </c>
+      <c r="J1">
         <v>1.45</v>
       </c>
-      <c r="K1" t="n">
+      <c r="K1">
         <v>7.042253521126761</v>
       </c>
-      <c r="L1" t="n">
-        <v>6.993006993006993</v>
-      </c>
-      <c r="M1" t="n">
+      <c r="L1">
+        <v>6.9930069930069934</v>
+      </c>
+      <c r="M1">
         <v>7.042253521126761</v>
       </c>
-      <c r="N1" t="n">
-        <v>3.988886984126984</v>
+      <c r="N1">
+        <v>3.9888869841269838</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0.4800488904761904</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.6802339357142858</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.698071369047619</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.832950868325977</v>
-      </c>
-      <c r="E2" t="n">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>0.48004889047619043</v>
+      </c>
+      <c r="B2">
+        <v>0.68023393571428581</v>
+      </c>
+      <c r="C2">
+        <v>0.69807136904761902</v>
+      </c>
+      <c r="D2">
+        <v>5.8329508683259768</v>
+      </c>
+      <c r="E2">
         <v>2.74900724284627</v>
       </c>
-      <c r="F2" t="n">
-        <v>3.395122168136697</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.832932305555555</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.8919342857142857</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.1295</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="F2">
+        <v>3.3951221681366972</v>
+      </c>
+      <c r="G2">
+        <v>1.8329323055555551</v>
+      </c>
+      <c r="H2">
+        <v>0.89193428571428568</v>
+      </c>
+      <c r="I2">
+        <v>1.1294999999999999</v>
+      </c>
+      <c r="J2">
         <v>1.23</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>7.042253521126761</v>
       </c>
-      <c r="L2" t="n">
-        <v>6.993006993006993</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="L2">
+        <v>6.9930069930069934</v>
+      </c>
+      <c r="M2">
         <v>7.042253521126761</v>
       </c>
-      <c r="N2" t="n">
-        <v>3.806859603174604</v>
+      <c r="N2">
+        <v>3.8068596031746038</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0.4259075119047619</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.6021020357142857</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.7088338690476192</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.037494930492006</v>
-      </c>
-      <c r="E3" t="n">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>0.42590751190476189</v>
+      </c>
+      <c r="B3">
+        <v>0.60210203571428567</v>
+      </c>
+      <c r="C3">
+        <v>0.70883386904761925</v>
+      </c>
+      <c r="D3">
+        <v>6.0374949304920058</v>
+      </c>
+      <c r="E3">
         <v>2.960085726336644</v>
       </c>
-      <c r="F3" t="n">
-        <v>3.437402394312128</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="F3">
+        <v>3.4374023943121279</v>
+      </c>
+      <c r="G3">
         <v>1.925632308730157</v>
       </c>
-      <c r="H3" t="n">
-        <v>0.8258826190476189</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.002077142857143</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="H3">
+        <v>0.82588261904761895</v>
+      </c>
+      <c r="I3">
+        <v>1.0020771428571431</v>
+      </c>
+      <c r="J3">
         <v>1.23</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>7.042253521126761</v>
       </c>
-      <c r="L3" t="n">
-        <v>6.993006993006993</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="L3">
+        <v>6.9930069930069934</v>
+      </c>
+      <c r="M3">
         <v>7.042253521126761</v>
       </c>
-      <c r="N3" t="n">
-        <v>3.671755158730155</v>
+      <c r="N3">
+        <v>3.6717551587301549</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>